--- a/Paramater_Files/sl2p_indextable.xlsx
+++ b/Paramater_Files/sl2p_indextable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\camryn\SL2PD-master\Paramater_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\camryn\SL2PD-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22575" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="22575" windowHeight="7650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Landsat5" sheetId="6" r:id="rId1"/>
@@ -1426,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -4204,7 +4204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
